--- a/Ar_Script/Meetu_Ui_Test/test_result/app_start_time_test_data.xlsx
+++ b/Ar_Script/Meetu_Ui_Test/test_result/app_start_time_test_data.xlsx
@@ -1,42 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PyTest\Ar_Script\Meetu_Ui_Test\test_result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pytest\Ar_Script\Meetu_Ui_Test\test_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E595E19-A9CB-4F5E-938E-FF274CF41BC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0A58AE-CE09-4586-8BC0-08DC962B9DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="24510" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数值说明" sheetId="1" r:id="rId1"/>
-    <sheet name="冷启动_v30" sheetId="4" r:id="rId2"/>
-    <sheet name="热启动_v30" sheetId="5" r:id="rId3"/>
-    <sheet name="冷启动_v29" sheetId="6" r:id="rId4"/>
-    <sheet name="热启动_v29" sheetId="7" r:id="rId5"/>
-    <sheet name="冷启动_v21" sheetId="8" r:id="rId6"/>
-    <sheet name="热启动_v21" sheetId="9" r:id="rId7"/>
-    <sheet name="冷启动_v18" sheetId="10" r:id="rId8"/>
-    <sheet name="热启动_v18" sheetId="11" r:id="rId9"/>
-    <sheet name="冷启动_v12_24" sheetId="12" r:id="rId10"/>
-    <sheet name="热启动_v12_29" sheetId="13" r:id="rId11"/>
-    <sheet name="冷启动_v11_35" sheetId="14" r:id="rId12"/>
-    <sheet name="热启动_v11_51" sheetId="15" r:id="rId13"/>
-    <sheet name="冷启动_v10_us" sheetId="16" r:id="rId14"/>
-    <sheet name="热启动_v10_us" sheetId="17" r:id="rId15"/>
-    <sheet name="冷启动_v10apk_45" sheetId="18" r:id="rId16"/>
-    <sheet name="热启动_v10apk_49" sheetId="19" r:id="rId17"/>
+    <sheet name="冷启动_v32" sheetId="2" r:id="rId2"/>
+    <sheet name="热启动_v32" sheetId="3" r:id="rId3"/>
+    <sheet name="冷启动_v30" sheetId="4" r:id="rId4"/>
+    <sheet name="热启动_v30" sheetId="5" r:id="rId5"/>
+    <sheet name="冷启动_v29" sheetId="6" r:id="rId6"/>
+    <sheet name="热启动_v29" sheetId="7" r:id="rId7"/>
+    <sheet name="冷启动_v21" sheetId="8" r:id="rId8"/>
+    <sheet name="热启动_v21" sheetId="9" r:id="rId9"/>
+    <sheet name="冷启动_v18" sheetId="10" r:id="rId10"/>
+    <sheet name="热启动_v18" sheetId="11" r:id="rId11"/>
+    <sheet name="冷启动_v12_24" sheetId="12" r:id="rId12"/>
+    <sheet name="热启动_v12_29" sheetId="13" r:id="rId13"/>
+    <sheet name="冷启动_v11_35" sheetId="14" r:id="rId14"/>
+    <sheet name="热启动_v11_51" sheetId="15" r:id="rId15"/>
+    <sheet name="冷启动_v10_us" sheetId="16" r:id="rId16"/>
+    <sheet name="热启动_v10_us" sheetId="17" r:id="rId17"/>
+    <sheet name="冷启动_v10apk_45" sheetId="18" r:id="rId18"/>
+    <sheet name="热启动_v10apk_49" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="295">
   <si>
     <t>caltime:启动app后的计时器的值-启动app前启动计时器的值</t>
   </si>
@@ -57,6 +59,102 @@
   </si>
   <si>
     <t>currentTime</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:58:57</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:59:07</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:59:17</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:59:26</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:59:36</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:59:46</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:59:55</t>
+  </si>
+  <si>
+    <t>2020-05-09 18:00:05</t>
+  </si>
+  <si>
+    <t>2020-05-09 18:00:15</t>
+  </si>
+  <si>
+    <t>2020-05-09 18:00:25</t>
+  </si>
+  <si>
+    <t>2020-05-09 18:00:35</t>
+  </si>
+  <si>
+    <t>2020-05-09 18:00:44</t>
+  </si>
+  <si>
+    <t>2020-05-09 18:00:54</t>
+  </si>
+  <si>
+    <t>2020-05-09 18:01:04</t>
+  </si>
+  <si>
+    <t>2020-05-09 18:01:14</t>
+  </si>
+  <si>
+    <t>2020-05-09 18:01:17</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:56:36</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:56:44</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:56:53</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:57:02</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:57:10</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:57:19</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:57:29</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:57:37</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:57:46</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:57:55</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:58:03</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:58:12</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:58:21</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:58:29</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:58:38</t>
+  </si>
+  <si>
+    <t>2020-05-09 17:58:41</t>
   </si>
   <si>
     <t>2020-04-13 12:02:20</t>
@@ -831,7 +929,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,6 +1004,12 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -938,7 +1042,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -967,6 +1071,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="content_style" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -993,10 +1100,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="139"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="39"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1029,7 +1136,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v30!$A$1</c:f>
+              <c:f>冷启动_v32!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1048,54 +1155,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v30!$A$2:$A$16</c:f>
+              <c:f>冷启动_v32!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1513</c:v>
+                  <c:v>1584</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1578</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1651</c:v>
+                  <c:v>1573</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1576</c:v>
+                  <c:v>1534</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1560</c:v>
+                  <c:v>1445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1689</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1625</c:v>
+                  <c:v>1571</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1483</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1515</c:v>
+                  <c:v>1519</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1594</c:v>
+                  <c:v>1521</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1642</c:v>
+                  <c:v>1704</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1664</c:v>
+                  <c:v>1539</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1489</c:v>
+                  <c:v>1431</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1649</c:v>
+                  <c:v>1609</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1621</c:v>
+                  <c:v>1578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,7 +1210,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B3AD-4FB6-9A86-A0CC36B95A7D}"/>
+              <c16:uniqueId val="{00000000-B1B5-413D-A3DB-D8386D7495FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1212,7 +1319,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v21!$B$1</c:f>
+              <c:f>冷启动_v29!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1231,54 +1338,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v21!$B$2:$B$16</c:f>
+              <c:f>冷启动_v29!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.99176083300000073</c:v>
+                  <c:v>1.750877144000015</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6692979100000009</c:v>
+                  <c:v>1.644016549000014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5845847269999991</c:v>
+                  <c:v>1.743561387</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6962872110000049</c:v>
+                  <c:v>1.798894473999979</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6425607099999979</c:v>
+                  <c:v>1.7215477240000041</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6834556900000019</c:v>
+                  <c:v>1.7766636700000049</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.636732545000001</c:v>
+                  <c:v>1.714227797999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6501792449999899</c:v>
+                  <c:v>1.7354335169999899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6734595100000009</c:v>
+                  <c:v>1.8120557150000141</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7136879920000041</c:v>
+                  <c:v>1.709271725000008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.66147762899999</c:v>
+                  <c:v>1.7886522860000009</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.638890803999999</c:v>
+                  <c:v>1.6684639860000059</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6773173700000259</c:v>
+                  <c:v>1.6955896020000409</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.693341856000018</c:v>
+                  <c:v>1.74044347499995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6160573299999901</c:v>
+                  <c:v>1.8476690709999839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,7 +1393,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F692-4988-8DFE-47D862E93708}"/>
+              <c16:uniqueId val="{00000000-9B8D-4BAA-AFC4-913F0937D9FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1395,7 +1502,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v21!$A$1</c:f>
+              <c:f>热启动_v29!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1414,54 +1521,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v21!$A$2:$A$16</c:f>
+              <c:f>热启动_v29!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>520</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>268</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>334</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>310</c:v>
+                  <c:v>844</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>745</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>347</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>381</c:v>
+                  <c:v>605</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>354</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>354</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>391</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>367</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>421</c:v>
+                  <c:v>457</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>354</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>343</c:v>
+                  <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>381</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1469,7 +1576,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9C6E-49CC-BE6C-F503B1C0F14F}"/>
+              <c16:uniqueId val="{00000000-F9A3-4299-A6CF-AAB0935B3CBB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1578,7 +1685,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v21!$B$1</c:f>
+              <c:f>热启动_v29!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1597,54 +1704,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v21!$B$2:$B$16</c:f>
+              <c:f>热启动_v29!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.70664229899998077</c:v>
+                  <c:v>0.50262124700000044</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41212672700001463</c:v>
+                  <c:v>0.46328089399999678</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49176516399998599</c:v>
+                  <c:v>0.4580297390000041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44081370399999292</c:v>
+                  <c:v>1.063414770000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88593045599998277</c:v>
+                  <c:v>0.53157540100000489</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52073727800001279</c:v>
+                  <c:v>0.56727375299999494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57204475899999352</c:v>
+                  <c:v>0.80831909600000529</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48000844199998483</c:v>
+                  <c:v>0.56441724299999407</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.48258526600000101</c:v>
+                  <c:v>0.54830711800001097</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56567326100000059</c:v>
+                  <c:v>0.5345509039999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.53221880500001362</c:v>
+                  <c:v>0.67283887899999684</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.59323251600000049</c:v>
+                  <c:v>0.64244973400001015</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.476208956999983</c:v>
+                  <c:v>0.63624951200000623</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.44816827100004281</c:v>
+                  <c:v>0.58082116500000325</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.54415353699999969</c:v>
+                  <c:v>0.6413207300000181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1652,7 +1759,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4C40-4DEE-A103-81A457D1D10A}"/>
+              <c16:uniqueId val="{00000000-D26F-4558-AA31-79AEB74AAB54}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1761,7 +1868,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v18!$A$1</c:f>
+              <c:f>冷启动_v21!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1780,54 +1887,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v18!$A$2:$A$16</c:f>
+              <c:f>冷启动_v21!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>652</c:v>
+                  <c:v>784</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1234</c:v>
+                  <c:v>1481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1276</c:v>
+                  <c:v>1396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1353</c:v>
+                  <c:v>1526</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1308</c:v>
+                  <c:v>1471</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1358</c:v>
+                  <c:v>1508</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1344</c:v>
+                  <c:v>1462</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1202</c:v>
+                  <c:v>1485</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1272</c:v>
+                  <c:v>1491</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1328</c:v>
+                  <c:v>1524</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1347</c:v>
+                  <c:v>1454</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1274</c:v>
+                  <c:v>1477</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1369</c:v>
+                  <c:v>1491</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1227</c:v>
+                  <c:v>1489</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1365</c:v>
+                  <c:v>1462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1835,7 +1942,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-99D1-47F9-A9C0-AABFE726DE32}"/>
+              <c16:uniqueId val="{00000000-955A-465E-AC6C-C7831F54115F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1944,7 +2051,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v18!$B$1</c:f>
+              <c:f>冷启动_v21!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1963,54 +2070,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v18!$B$2:$B$16</c:f>
+              <c:f>冷启动_v21!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.84419417499998417</c:v>
+                  <c:v>0.99176083300000073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.418631011000002</c:v>
+                  <c:v>1.6692979100000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4428048569999989</c:v>
+                  <c:v>1.5845847269999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5016516510000031</c:v>
+                  <c:v>1.6962872110000049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.488882031999992</c:v>
+                  <c:v>1.6425607099999979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5141852030000109</c:v>
+                  <c:v>1.6834556900000019</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.515805901999983</c:v>
+                  <c:v>1.636732545000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.35302654900002</c:v>
+                  <c:v>1.6501792449999899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4449971150000069</c:v>
+                  <c:v>1.6734595100000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4871853180000021</c:v>
+                  <c:v>1.7136879920000041</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.543454643999979</c:v>
+                  <c:v>1.66147762899999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.459503860000041</c:v>
+                  <c:v>1.638890803999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.552538640000023</c:v>
+                  <c:v>1.6773173700000259</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.398926355999947</c:v>
+                  <c:v>1.693341856000018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.523123262000013</c:v>
+                  <c:v>1.6160573299999901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2018,7 +2125,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F4C0-458F-BB1C-F1D278F91ECA}"/>
+              <c16:uniqueId val="{00000000-1A25-4446-B182-AED568F9A58E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2127,7 +2234,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v18!$A$1</c:f>
+              <c:f>热启动_v21!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2146,54 +2253,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v18!$A$2:$A$16</c:f>
+              <c:f>热启动_v21!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>436</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>328</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>335</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>417</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>352</c:v>
+                  <c:v>745</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>440</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>423</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>351</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>449</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>446</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>452</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>398</c:v>
+                  <c:v>421</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>320</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>359</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>316</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2201,7 +2308,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FCC6-4D96-937D-02D6ABD3F906}"/>
+              <c16:uniqueId val="{00000000-942D-42CB-9B1D-AEB15B4F4B9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2310,7 +2417,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v18!$B$1</c:f>
+              <c:f>热启动_v21!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2329,54 +2436,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v18!$B$2:$B$16</c:f>
+              <c:f>热启动_v21!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.6654576910000003</c:v>
+                  <c:v>0.70664229899998077</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50925286500000055</c:v>
+                  <c:v>0.41212672700001463</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50266903699999688</c:v>
+                  <c:v>0.49176516399998599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6524548949999982</c:v>
+                  <c:v>0.44081370399999292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56705853599999756</c:v>
+                  <c:v>0.88593045599998277</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.68135740999999683</c:v>
+                  <c:v>0.52073727800001279</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61817485499999236</c:v>
+                  <c:v>0.57204475899999352</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57911097999999583</c:v>
+                  <c:v>0.48000844199998483</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63005794800000103</c:v>
+                  <c:v>0.48258526600000101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.69988462999999967</c:v>
+                  <c:v>0.56567326100000059</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.65847550400000898</c:v>
+                  <c:v>0.53221880500001362</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61055792400000541</c:v>
+                  <c:v>0.59323251600000049</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.48503700199999861</c:v>
+                  <c:v>0.476208956999983</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.60023491000001172</c:v>
+                  <c:v>0.44816827100004281</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5287374939999836</c:v>
+                  <c:v>0.54415353699999969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2384,7 +2491,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A1FB-4FD0-BF3F-765EE89427BE}"/>
+              <c16:uniqueId val="{00000000-5D1C-4C2B-B43C-E06BD1281806}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2493,7 +2600,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v12_24!$A$1</c:f>
+              <c:f>冷启动_v18!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2512,54 +2619,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v12_24!$A$2:$A$16</c:f>
+              <c:f>冷启动_v18!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1306</c:v>
+                  <c:v>652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1339</c:v>
+                  <c:v>1234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1296</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1345</c:v>
+                  <c:v>1353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1211</c:v>
+                  <c:v>1308</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1385</c:v>
+                  <c:v>1358</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1211</c:v>
+                  <c:v>1344</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1331</c:v>
+                  <c:v>1202</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1300</c:v>
+                  <c:v>1272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1302</c:v>
+                  <c:v>1328</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1347</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1274</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>1342</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>1260</c:v>
+                  <c:v>1369</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1319</c:v>
+                  <c:v>1227</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1325</c:v>
+                  <c:v>1365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2567,7 +2674,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C4EB-4CED-AA9B-4E028AB75E2F}"/>
+              <c16:uniqueId val="{00000000-62FD-4CC1-AE39-97222AB0FC78}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2676,7 +2783,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v12_24!$B$1</c:f>
+              <c:f>冷启动_v18!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2695,54 +2802,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v12_24!$B$2:$B$16</c:f>
+              <c:f>冷启动_v18!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.517275000999998</c:v>
+                  <c:v>0.84419417499998417</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5344598759999999</c:v>
+                  <c:v>1.418631011000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.532833729000004</c:v>
+                  <c:v>1.4428048569999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5322942459999991</c:v>
+                  <c:v>1.5016516510000031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.416227468000002</c:v>
+                  <c:v>1.488882031999992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5860359859999991</c:v>
+                  <c:v>1.5141852030000109</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4170187309999991</c:v>
+                  <c:v>1.515805901999983</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.50720668400001</c:v>
+                  <c:v>1.35302654900002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4859628579999939</c:v>
+                  <c:v>1.4449971150000069</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5135358269999979</c:v>
+                  <c:v>1.4871853180000021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.434616075999998</c:v>
+                  <c:v>1.543454643999979</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.546846173000006</c:v>
+                  <c:v>1.459503860000041</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.439564756999999</c:v>
+                  <c:v>1.552538640000023</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4936907439999909</c:v>
+                  <c:v>1.398926355999947</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.542972929999991</c:v>
+                  <c:v>1.523123262000013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2750,7 +2857,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B9AF-4BB9-AEE9-D3016661A481}"/>
+              <c16:uniqueId val="{00000000-8A92-42D3-A9F6-46CADC960153}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2859,7 +2966,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v12_29!$A$1</c:f>
+              <c:f>热启动_v18!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2878,54 +2985,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v12_29!$A$2:$A$16</c:f>
+              <c:f>热启动_v18!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>775</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>364</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>347</c:v>
+                  <c:v>417</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>358</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>371</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>341</c:v>
+                  <c:v>449</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>286</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>346</c:v>
+                  <c:v>452</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>361</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>355</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>315</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>381</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2933,7 +3040,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C87-4617-9667-28002B3AC9D0}"/>
+              <c16:uniqueId val="{00000000-6B8F-48B4-93B4-395385EE6780}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3006,10 +3113,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="139"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="39"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3042,7 +3149,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v30!$B$1</c:f>
+              <c:f>冷启动_v32!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3061,54 +3168,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v30!$B$2:$B$16</c:f>
+              <c:f>冷启动_v32!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.757274942999999</c:v>
+                  <c:v>1.7536371850000021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8132709989999971</c:v>
+                  <c:v>1.771008109999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.878032555999994</c:v>
+                  <c:v>1.781883741000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8106155929999941</c:v>
+                  <c:v>1.768051213000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.777283659999995</c:v>
+                  <c:v>1.643437543000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.906774058999986</c:v>
+                  <c:v>1.734610282999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.833993682999989</c:v>
+                  <c:v>1.7661110600000141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.723001317000012</c:v>
+                  <c:v>1.6850836290000191</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.750576610000024</c:v>
+                  <c:v>1.7502501769999981</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.809435590999982</c:v>
+                  <c:v>1.7986943340000039</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.862809598000013</c:v>
+                  <c:v>1.922940757000049</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9000638599999891</c:v>
+                  <c:v>1.74119089300001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.704934037999976</c:v>
+                  <c:v>1.6487098580000179</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.8497644640000319</c:v>
+                  <c:v>1.7869802900000309</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.847221960000013</c:v>
+                  <c:v>1.8051466489999941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3116,7 +3223,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E813-4109-9BEB-CDCE9D7B8D6C}"/>
+              <c16:uniqueId val="{00000000-1CC4-43BD-A51D-E38127A1FE96}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3225,7 +3332,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v12_29!$B$1</c:f>
+              <c:f>热启动_v18!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3244,54 +3351,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v12_29!$B$2:$B$16</c:f>
+              <c:f>热启动_v18!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.97887260300001344</c:v>
+                  <c:v>0.6654576910000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45954487200000932</c:v>
+                  <c:v>0.50925286500000055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59951055199999814</c:v>
+                  <c:v>0.50266903699999688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55111392699998873</c:v>
+                  <c:v>0.6524548949999982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50078645199999983</c:v>
+                  <c:v>0.56705853599999756</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51564532700001564</c:v>
+                  <c:v>0.68135740999999683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50013278599999467</c:v>
+                  <c:v>0.61817485499999236</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56843479400001229</c:v>
+                  <c:v>0.57911097999999583</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4785444860000041</c:v>
+                  <c:v>0.63005794800000103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.43737667599998531</c:v>
+                  <c:v>0.69988462999999967</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5086958750000008</c:v>
+                  <c:v>0.65847550400000898</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.56337513599999056</c:v>
+                  <c:v>0.61055792400000541</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.57902527400000281</c:v>
+                  <c:v>0.48503700199999861</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.45733465900002562</c:v>
+                  <c:v>0.60023491000001172</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.54734748800001398</c:v>
+                  <c:v>0.5287374939999836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3299,7 +3406,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C830-4704-AABD-634416AF7A11}"/>
+              <c16:uniqueId val="{00000000-E37F-4504-AA32-1F7AB043C9E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3408,7 +3515,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v11_35!$A$1</c:f>
+              <c:f>冷启动_v12_24!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3427,54 +3534,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v11_35!$A$2:$A$16</c:f>
+              <c:f>冷启动_v12_24!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1297</c:v>
+                  <c:v>1306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1305</c:v>
+                  <c:v>1339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1284</c:v>
+                  <c:v>1296</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1186</c:v>
+                  <c:v>1345</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1338</c:v>
+                  <c:v>1211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1354</c:v>
+                  <c:v>1385</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1312</c:v>
+                  <c:v>1211</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1279</c:v>
+                  <c:v>1331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1321</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1267</c:v>
+                  <c:v>1302</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1189</c:v>
+                  <c:v>1274</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1332</c:v>
+                  <c:v>1342</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1335</c:v>
+                  <c:v>1260</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1279</c:v>
+                  <c:v>1319</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1301</c:v>
+                  <c:v>1325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3482,7 +3589,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-05CB-4C34-9F54-1721E54EDB7A}"/>
+              <c16:uniqueId val="{00000000-F613-4F9D-8F8D-3007A3718159}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3591,7 +3698,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v11_35!$B$1</c:f>
+              <c:f>冷启动_v12_24!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3610,54 +3717,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v11_35!$B$2:$B$16</c:f>
+              <c:f>冷启动_v12_24!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.499238886000001</c:v>
+                  <c:v>1.517275000999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5486144070000021</c:v>
+                  <c:v>1.5344598759999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.470317532000003</c:v>
+                  <c:v>1.532833729000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.394931042000003</c:v>
+                  <c:v>1.5322942459999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5257357759999981</c:v>
+                  <c:v>1.416227468000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5726117779999951</c:v>
+                  <c:v>1.5860359859999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.514043236000006</c:v>
+                  <c:v>1.4170187309999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.494204566999997</c:v>
+                  <c:v>1.50720668400001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5163570470000001</c:v>
+                  <c:v>1.4859628579999939</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4768695869999959</c:v>
+                  <c:v>1.5135358269999979</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3813268969999939</c:v>
+                  <c:v>1.434616075999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.501141831000012</c:v>
+                  <c:v>1.546846173000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.520303097999999</c:v>
+                  <c:v>1.439564756999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4876268520000051</c:v>
+                  <c:v>1.4936907439999909</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.492927705999989</c:v>
+                  <c:v>1.542972929999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3665,7 +3772,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DC87-41F7-A350-57ED30341891}"/>
+              <c16:uniqueId val="{00000000-A94D-4096-AC32-6F4F80887C56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3774,7 +3881,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v11_51!$A$1</c:f>
+              <c:f>热启动_v12_29!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3793,54 +3900,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v11_51!$A$2:$A$16</c:f>
+              <c:f>热启动_v12_29!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>459</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>349</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>315</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>414</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>435</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>282</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>326</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3848,7 +3955,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FA5D-4BB0-95C0-BAD6CF09949E}"/>
+              <c16:uniqueId val="{00000000-C1AF-4193-99CD-2B7F7946B0BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3957,7 +4064,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v11_51!$B$1</c:f>
+              <c:f>热启动_v12_29!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3976,54 +4083,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v11_51!$B$2:$B$16</c:f>
+              <c:f>热启动_v12_29!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.65166271100000017</c:v>
+                  <c:v>0.97887260300001344</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52707454000000098</c:v>
+                  <c:v>0.45954487200000932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53721534400000337</c:v>
+                  <c:v>0.59951055199999814</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4366957470000159</c:v>
+                  <c:v>0.55111392699998873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43569985199999911</c:v>
+                  <c:v>0.50078645199999983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60974116300002379</c:v>
+                  <c:v>0.51564532700001564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54839405900000315</c:v>
+                  <c:v>0.50013278599999467</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50771024400000897</c:v>
+                  <c:v>0.56843479400001229</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49121143200000011</c:v>
+                  <c:v>0.4785444860000041</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4727246770000022</c:v>
+                  <c:v>0.43737667599998531</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.61724934299999745</c:v>
+                  <c:v>0.5086958750000008</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53452658899999506</c:v>
+                  <c:v>0.56337513599999056</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.56128071000000546</c:v>
+                  <c:v>0.57902527400000281</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.46013984199998959</c:v>
+                  <c:v>0.45733465900002562</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.51358361600000535</c:v>
+                  <c:v>0.54734748800001398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4031,7 +4138,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FDD4-4321-9F14-89200C27C837}"/>
+              <c16:uniqueId val="{00000000-56C9-481B-906D-866D1E29013A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4140,7 +4247,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v10_us!$A$1</c:f>
+              <c:f>冷启动_v11_35!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4159,54 +4266,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v10_us!$A$2:$A$16</c:f>
+              <c:f>冷启动_v11_35!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1296</c:v>
+                  <c:v>1297</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1242</c:v>
+                  <c:v>1305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1330</c:v>
+                  <c:v>1284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1288</c:v>
+                  <c:v>1186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1384</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1156</c:v>
+                  <c:v>1354</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1426</c:v>
+                  <c:v>1312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1323</c:v>
+                  <c:v>1279</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1290</c:v>
+                  <c:v>1321</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1362</c:v>
+                  <c:v>1267</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1276</c:v>
+                  <c:v>1189</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1188</c:v>
+                  <c:v>1332</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1360</c:v>
+                  <c:v>1335</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1311</c:v>
+                  <c:v>1279</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1243</c:v>
+                  <c:v>1301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4214,7 +4321,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-913A-44E5-A9DF-42E2C63F51FE}"/>
+              <c16:uniqueId val="{00000000-8FA1-4D66-8141-D55ED24065DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4323,7 +4430,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v10_us!$B$1</c:f>
+              <c:f>冷启动_v11_35!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4342,54 +4449,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v10_us!$B$2:$B$16</c:f>
+              <c:f>冷启动_v11_35!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.4959295009999991</c:v>
+                  <c:v>1.499238886000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.440738340999999</c:v>
+                  <c:v>1.5486144070000021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5362675610000029</c:v>
+                  <c:v>1.470317532000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.466193469000004</c:v>
+                  <c:v>1.394931042000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5629440630000031</c:v>
+                  <c:v>1.5257357759999981</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3267765739999999</c:v>
+                  <c:v>1.5726117779999951</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6708823529999961</c:v>
+                  <c:v>1.514043236000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4909814620000079</c:v>
+                  <c:v>1.494204566999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.496999166000009</c:v>
+                  <c:v>1.5163570470000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.527710564999992</c:v>
+                  <c:v>1.4768695869999959</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.449428122</c:v>
+                  <c:v>1.3813268969999939</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3877246779999981</c:v>
+                  <c:v>1.501141831000012</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.538900186000006</c:v>
+                  <c:v>1.520303097999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.49564693100001</c:v>
+                  <c:v>1.4876268520000051</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.423627879000009</c:v>
+                  <c:v>1.492927705999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4397,7 +4504,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1B13-478E-9BA2-A633F2226FD3}"/>
+              <c16:uniqueId val="{00000000-8E25-4607-9193-6D7B31C1557B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4506,7 +4613,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v10_us!$A$1</c:f>
+              <c:f>热启动_v11_51!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4525,54 +4632,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v10_us!$A$2:$A$16</c:f>
+              <c:f>热启动_v11_51!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>247</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>260</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>574</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>322</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>368</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>288</c:v>
+                  <c:v>414</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>312</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>336</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>278</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>287</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>316</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>251</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>393</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>292</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>303</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4580,7 +4687,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4C1E-47D4-9F47-D696AD777949}"/>
+              <c16:uniqueId val="{00000000-5B0D-4C88-BA6E-CFB29F5A9045}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4689,7 +4796,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v10_us!$B$1</c:f>
+              <c:f>热启动_v11_51!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4708,54 +4815,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v10_us!$B$2:$B$16</c:f>
+              <c:f>热启动_v11_51!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.40131310499998563</c:v>
+                  <c:v>0.65166271100000017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42776861899997698</c:v>
+                  <c:v>0.52707454000000098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71328500900000336</c:v>
+                  <c:v>0.53721534400000337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48797293000001218</c:v>
+                  <c:v>0.4366957470000159</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57768137799999408</c:v>
+                  <c:v>0.43569985199999911</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45310539400000488</c:v>
+                  <c:v>0.60974116300002379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47424946999998951</c:v>
+                  <c:v>0.54839405900000315</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48541471500001881</c:v>
+                  <c:v>0.50771024400000897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.44428186499999361</c:v>
+                  <c:v>0.49121143200000011</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47552953999999659</c:v>
+                  <c:v>0.4727246770000022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.49032522900000691</c:v>
+                  <c:v>0.61724934299999745</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.42557604699999269</c:v>
+                  <c:v>0.53452658899999506</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.61192603699998926</c:v>
+                  <c:v>0.56128071000000546</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.48210308599999507</c:v>
+                  <c:v>0.46013984199998959</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46977997300001562</c:v>
+                  <c:v>0.51358361600000535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4763,7 +4870,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-62CB-40E6-847B-9732B0555E76}"/>
+              <c16:uniqueId val="{00000000-D122-4EC7-95CD-E5FD755EB1F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4872,7 +4979,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v10apk_45!$A$1</c:f>
+              <c:f>冷启动_v10_us!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4891,54 +4998,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v10apk_45!$A$2:$A$16</c:f>
+              <c:f>冷启动_v10_us!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1396</c:v>
+                  <c:v>1296</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1205</c:v>
+                  <c:v>1242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1304</c:v>
+                  <c:v>1330</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1264</c:v>
+                  <c:v>1288</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1362</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1338</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1212</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1365</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1303</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1356</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>1195</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1240</c:v>
+                  <c:v>1188</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1299</c:v>
+                  <c:v>1360</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1321</c:v>
+                  <c:v>1311</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1216</c:v>
+                  <c:v>1243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4946,7 +5053,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-46EC-4790-8DCE-1ED4877E2AD8}"/>
+              <c16:uniqueId val="{00000000-B242-4604-8CC0-4DE818575278}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5055,7 +5162,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v30!$A$1</c:f>
+              <c:f>热启动_v32!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5074,54 +5181,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v30!$A$2:$A$16</c:f>
+              <c:f>热启动_v32!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>433</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>411</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>433</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>417</c:v>
+                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>534</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>415</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>366</c:v>
+                  <c:v>1560</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>375</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>455</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>360</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>532</c:v>
+                  <c:v>477</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>356</c:v>
+                  <c:v>429</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>348</c:v>
+                  <c:v>472</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>348</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>402</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5129,7 +5236,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1F60-439F-A281-CFD5211DCFBE}"/>
+              <c16:uniqueId val="{00000000-C7B1-4543-BE64-5931E4F79969}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5238,7 +5345,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v10apk_45!$B$1</c:f>
+              <c:f>冷启动_v10_us!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5257,54 +5364,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v10apk_45!$B$2:$B$16</c:f>
+              <c:f>冷启动_v10_us!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.595527615000002</c:v>
+                  <c:v>1.4959295009999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.405619346999998</c:v>
+                  <c:v>1.440738340999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.455411508000005</c:v>
+                  <c:v>1.5362675610000029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.456367309999997</c:v>
+                  <c:v>1.466193469000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5594390270000029</c:v>
+                  <c:v>1.5629440630000031</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5259609339999971</c:v>
+                  <c:v>1.3267765739999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.394874270000003</c:v>
+                  <c:v>1.6708823529999961</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5339312979999991</c:v>
+                  <c:v>1.4909814620000079</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.490408301000002</c:v>
+                  <c:v>1.496999166000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.534324523999999</c:v>
+                  <c:v>1.527710564999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3824520489999941</c:v>
+                  <c:v>1.449428122</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.448098658999996</c:v>
+                  <c:v>1.3877246779999981</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5101966129999771</c:v>
+                  <c:v>1.538900186000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.549143306000019</c:v>
+                  <c:v>1.49564693100001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4084177950000201</c:v>
+                  <c:v>1.423627879000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5312,7 +5419,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-06C4-4F04-B9BA-ADB8FD14BFE5}"/>
+              <c16:uniqueId val="{00000000-C88D-4102-84F8-2730D71AE1BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5421,7 +5528,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v10apk_49!$A$1</c:f>
+              <c:f>热启动_v10_us!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5440,54 +5547,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v10apk_49!$A$2:$A$16</c:f>
+              <c:f>热启动_v10_us!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>258</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>245</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>257</c:v>
+                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>331</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>313</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>390</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>341</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>329</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>325</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>305</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>307</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>395</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>391</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>360</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5495,7 +5602,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CC45-44F6-ABA0-1075FC526CF9}"/>
+              <c16:uniqueId val="{00000000-6937-4DF7-B5CA-9F4D0491926B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5604,6 +5711,738 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>热启动_v10_us!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>calTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>热启动_v10_us!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.40131310499998563</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42776861899997698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71328500900000336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48797293000001218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57768137799999408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45310539400000488</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47424946999998951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48541471500001881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44428186499999361</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47552953999999659</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49032522900000691</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42557604699999269</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61192603699998926</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48210308599999507</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46977997300001562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85D9-4839-A3BB-2ACE6C78437F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冷启动_v10apk_45!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>冷启动_v10apk_45!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1212</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1303</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1356</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1299</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1321</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC4F-4D3C-ABA8-2955E6976130}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Caltime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冷启动_v10apk_45!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>calTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>冷启动_v10apk_45!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.595527615000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.405619346999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.455411508000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.456367309999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5594390270000029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5259609339999971</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.394874270000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5339312979999991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.490408301000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.534324523999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3824520489999941</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.448098658999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5101966129999771</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.549143306000019</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4084177950000201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DE6-4A6E-A888-4CD4BF26CAA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>热启动_v10apk_49!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>热启动_v10apk_49!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8931-42FF-BACF-E4A6C9B995CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Caltime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>热启动_v10apk_49!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -5678,7 +6517,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-830A-4E7F-928F-3091EA6BF3BD}"/>
+              <c16:uniqueId val="{00000000-D809-45B7-8C8A-0993B2429BD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5787,7 +6626,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v30!$B$1</c:f>
+              <c:f>热启动_v32!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5806,54 +6645,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v30!$B$2:$B$16</c:f>
+              <c:f>热启动_v32!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.65463560599999937</c:v>
+                  <c:v>1.064409282</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63613340300000232</c:v>
+                  <c:v>0.71466285800000406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60934777199999957</c:v>
+                  <c:v>0.68047652899999633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59435927499999508</c:v>
+                  <c:v>0.75175604799999718</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74954094099999935</c:v>
+                  <c:v>0.56108161000000223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6191450930000002</c:v>
+                  <c:v>0.70506056199999989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58705602800000634</c:v>
+                  <c:v>1.698496309000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54148305699999355</c:v>
+                  <c:v>0.54953210600000091</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63464260499999625</c:v>
+                  <c:v>0.63837852100000703</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.48480478599999799</c:v>
+                  <c:v>0.59593347400000596</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7450675810000007</c:v>
+                  <c:v>0.69122739300000546</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.51314119500000288</c:v>
+                  <c:v>0.60861743399999568</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.53768485400000543</c:v>
+                  <c:v>0.67081457500000852</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.50575776200000178</c:v>
+                  <c:v>0.71486075400000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.60586261299999933</c:v>
+                  <c:v>0.70781443000001332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5861,7 +6700,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F11E-4D24-97CA-9E1BA08D3AA2}"/>
+              <c16:uniqueId val="{00000000-AB16-494D-A285-45BC03AC097B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5970,7 +6809,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v29!$A$1</c:f>
+              <c:f>冷启动_v30!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5989,54 +6828,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v29!$A$2:$A$16</c:f>
+              <c:f>冷启动_v30!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1539</c:v>
+                  <c:v>1513</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1436</c:v>
+                  <c:v>1578</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1537</c:v>
+                  <c:v>1651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1577</c:v>
+                  <c:v>1576</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1501</c:v>
+                  <c:v>1560</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1549</c:v>
+                  <c:v>1689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1504</c:v>
+                  <c:v>1625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1511</c:v>
+                  <c:v>1483</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1580</c:v>
+                  <c:v>1515</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1490</c:v>
+                  <c:v>1594</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1561</c:v>
+                  <c:v>1642</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1451</c:v>
+                  <c:v>1664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1468</c:v>
+                  <c:v>1489</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1528</c:v>
+                  <c:v>1649</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1609</c:v>
+                  <c:v>1621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6044,7 +6883,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DD7A-4177-8774-A4E7D3CA56F3}"/>
+              <c16:uniqueId val="{00000000-6388-4D3E-A91A-D193CCFC1943}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6153,7 +6992,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v29!$B$1</c:f>
+              <c:f>冷启动_v30!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6172,54 +7011,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v29!$B$2:$B$16</c:f>
+              <c:f>冷启动_v30!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.750877144000015</c:v>
+                  <c:v>1.757274942999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.644016549000014</c:v>
+                  <c:v>1.8132709989999971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.743561387</c:v>
+                  <c:v>1.878032555999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.798894473999979</c:v>
+                  <c:v>1.8106155929999941</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7215477240000041</c:v>
+                  <c:v>1.777283659999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7766636700000049</c:v>
+                  <c:v>1.906774058999986</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.714227797999996</c:v>
+                  <c:v>1.833993682999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7354335169999899</c:v>
+                  <c:v>1.723001317000012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8120557150000141</c:v>
+                  <c:v>1.750576610000024</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.709271725000008</c:v>
+                  <c:v>1.809435590999982</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7886522860000009</c:v>
+                  <c:v>1.862809598000013</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6684639860000059</c:v>
+                  <c:v>1.9000638599999891</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6955896020000409</c:v>
+                  <c:v>1.704934037999976</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.74044347499995</c:v>
+                  <c:v>1.8497644640000319</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8476690709999839</c:v>
+                  <c:v>1.847221960000013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6227,7 +7066,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A020-4D8B-8543-2680AF18BE42}"/>
+              <c16:uniqueId val="{00000000-142D-457D-A1E1-94B7BD69650E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6336,7 +7175,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v29!$A$1</c:f>
+              <c:f>热启动_v30!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6355,54 +7194,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v29!$A$2:$A$16</c:f>
+              <c:f>热启动_v30!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>328</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>305</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>260</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>844</c:v>
+                  <c:v>417</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>373</c:v>
+                  <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>605</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>371</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>394</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>384</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>456</c:v>
+                  <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>457</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>453</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>386</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>464</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6410,7 +7249,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-136C-42B6-A536-5B33EAF545C9}"/>
+              <c16:uniqueId val="{00000000-57CA-4FD6-A801-602A7252645C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6519,7 +7358,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v29!$B$1</c:f>
+              <c:f>热启动_v30!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6538,54 +7377,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v29!$B$2:$B$16</c:f>
+              <c:f>热启动_v30!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.50262124700000044</c:v>
+                  <c:v>0.65463560599999937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46328089399999678</c:v>
+                  <c:v>0.63613340300000232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4580297390000041</c:v>
+                  <c:v>0.60934777199999957</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.063414770000001</c:v>
+                  <c:v>0.59435927499999508</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53157540100000489</c:v>
+                  <c:v>0.74954094099999935</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56727375299999494</c:v>
+                  <c:v>0.6191450930000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80831909600000529</c:v>
+                  <c:v>0.58705602800000634</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56441724299999407</c:v>
+                  <c:v>0.54148305699999355</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54830711800001097</c:v>
+                  <c:v>0.63464260499999625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5345509039999996</c:v>
+                  <c:v>0.48480478599999799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.67283887899999684</c:v>
+                  <c:v>0.7450675810000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.64244973400001015</c:v>
+                  <c:v>0.51314119500000288</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.63624951200000623</c:v>
+                  <c:v>0.53768485400000543</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.58082116500000325</c:v>
+                  <c:v>0.50575776200000178</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.6413207300000181</c:v>
+                  <c:v>0.60586261299999933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6593,7 +7432,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0B2E-48E3-A5F4-552BB76C10D1}"/>
+              <c16:uniqueId val="{00000000-22B3-4346-86F7-30D2761C7C02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6702,7 +7541,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v21!$A$1</c:f>
+              <c:f>冷启动_v29!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6721,54 +7560,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v21!$A$2:$A$16</c:f>
+              <c:f>冷启动_v29!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>784</c:v>
+                  <c:v>1539</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1481</c:v>
+                  <c:v>1436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1396</c:v>
+                  <c:v>1537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1526</c:v>
+                  <c:v>1577</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1471</c:v>
+                  <c:v>1501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1508</c:v>
+                  <c:v>1549</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1462</c:v>
+                  <c:v>1504</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1485</c:v>
+                  <c:v>1511</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1491</c:v>
+                  <c:v>1580</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1524</c:v>
+                  <c:v>1490</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1454</c:v>
+                  <c:v>1561</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1477</c:v>
+                  <c:v>1451</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1491</c:v>
+                  <c:v>1468</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1489</c:v>
+                  <c:v>1528</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1462</c:v>
+                  <c:v>1609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6776,7 +7615,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C27-40D6-A016-79433A707277}"/>
+              <c16:uniqueId val="{00000000-C633-4B80-AB95-7FD7565E6BC4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6857,7 +7696,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6888,7 +7727,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6910,6 +7749,140 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -6976,7 +7949,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -7043,7 +8016,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -7110,7 +8083,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -7177,7 +8150,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -7244,7 +8217,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -7311,7 +8284,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -7393,6 +8366,140 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
@@ -7445,7 +8552,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -7512,7 +8619,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -7579,7 +8686,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -7646,7 +8753,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -7713,7 +8820,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -7760,140 +8867,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8238,6 +9211,420 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>652</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.84419417499998417</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1234</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.418631011000002</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1276</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.4428048569999989</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>1353</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.5016516510000031</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>1308</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.488882031999992</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>1358</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.5141852030000109</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>1344</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.515805901999983</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>1202</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.35302654900002</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1272</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.4449971150000069</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>1328</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.4871853180000021</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>1347</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.543454643999979</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>1274</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.459503860000041</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>1369</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.552538640000023</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>1227</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.398926355999947</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>1365</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.523123262000013</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>1260.5999999999999</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.432594038333334</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>436</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.6654576910000003</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>328</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.50925286500000055</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>335</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.50266903699999688</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>417</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.6524548949999982</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>352</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.56705853599999756</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>440</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.68135740999999683</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>423</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.61817485499999236</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>351</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.57911097999999583</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>449</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.63005794800000103</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>446</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.69988462999999967</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>452</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.65847550400000898</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>398</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.61055792400000541</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>320</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.48503700199999861</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>359</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.60023491000001172</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>316</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.5287374939999836</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>388.13333333333333</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.59923477873333253</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -8269,7 +9656,7 @@
         <v>1.517275000999998</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -8280,7 +9667,7 @@
         <v>1.5344598759999999</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -8291,7 +9678,7 @@
         <v>1.532833729000004</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -8302,7 +9689,7 @@
         <v>1.5322942459999991</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -8313,7 +9700,7 @@
         <v>1.416227468000002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -8324,7 +9711,7 @@
         <v>1.5860359859999991</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -8335,7 +9722,7 @@
         <v>1.4170187309999991</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -8346,7 +9733,7 @@
         <v>1.50720668400001</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -8357,7 +9744,7 @@
         <v>1.4859628579999939</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -8368,7 +9755,7 @@
         <v>1.5135358269999979</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -8379,7 +9766,7 @@
         <v>1.434616075999998</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -8390,7 +9777,7 @@
         <v>1.546846173000006</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -8401,7 +9788,7 @@
         <v>1.439564756999999</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -8412,7 +9799,7 @@
         <v>1.4936907439999909</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -8423,7 +9810,7 @@
         <v>1.542972929999991</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -8434,7 +9821,7 @@
         <v>1.500036072399999</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -8444,7 +9831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -8476,7 +9863,7 @@
         <v>0.97887260300001344</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -8487,7 +9874,7 @@
         <v>0.45954487200000932</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -8498,7 +9885,7 @@
         <v>0.59951055199999814</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -8509,7 +9896,7 @@
         <v>0.55111392699998873</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -8520,7 +9907,7 @@
         <v>0.50078645199999983</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -8531,7 +9918,7 @@
         <v>0.51564532700001564</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -8542,7 +9929,7 @@
         <v>0.50013278599999467</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -8553,7 +9940,7 @@
         <v>0.56843479400001229</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -8564,7 +9951,7 @@
         <v>0.4785444860000041</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -8575,7 +9962,7 @@
         <v>0.43737667599998531</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -8586,7 +9973,7 @@
         <v>0.5086958750000008</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -8597,7 +9984,7 @@
         <v>0.56337513599999056</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -8608,7 +9995,7 @@
         <v>0.57902527400000281</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -8619,7 +10006,7 @@
         <v>0.45733465900002562</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -8630,7 +10017,7 @@
         <v>0.54734748800001398</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -8641,7 +10028,7 @@
         <v>0.54971606046667032</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -8651,7 +10038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -8685,7 +10072,7 @@
         <v>1.499238886000001</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -8696,7 +10083,7 @@
         <v>1.5486144070000021</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -8707,7 +10094,7 @@
         <v>1.470317532000003</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -8718,7 +10105,7 @@
         <v>1.394931042000003</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -8729,7 +10116,7 @@
         <v>1.5257357759999981</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -8740,7 +10127,7 @@
         <v>1.5726117779999951</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -8751,7 +10138,7 @@
         <v>1.514043236000006</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -8762,7 +10149,7 @@
         <v>1.494204566999997</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -8773,7 +10160,7 @@
         <v>1.5163570470000001</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -8784,7 +10171,7 @@
         <v>1.4768695869999959</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -8795,7 +10182,7 @@
         <v>1.3813268969999939</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -8806,7 +10193,7 @@
         <v>1.501141831000012</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -8817,7 +10204,7 @@
         <v>1.520303097999999</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -8828,7 +10215,7 @@
         <v>1.4876268520000051</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -8839,7 +10226,7 @@
         <v>1.492927705999989</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -8850,7 +10237,7 @@
         <v>1.4930833494666671</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -8860,7 +10247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -8894,7 +10281,7 @@
         <v>0.65166271100000017</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -8905,7 +10292,7 @@
         <v>0.52707454000000098</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -8916,7 +10303,7 @@
         <v>0.53721534400000337</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -8927,7 +10314,7 @@
         <v>0.4366957470000159</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -8938,7 +10325,7 @@
         <v>0.43569985199999911</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -8949,7 +10336,7 @@
         <v>0.60974116300002379</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -8960,7 +10347,7 @@
         <v>0.54839405900000315</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -8971,7 +10358,7 @@
         <v>0.50771024400000897</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -8982,7 +10369,7 @@
         <v>0.49121143200000011</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -8993,7 +10380,7 @@
         <v>0.4727246770000022</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -9004,7 +10391,7 @@
         <v>0.61724934299999745</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -9015,7 +10402,7 @@
         <v>0.53452658899999506</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -9026,7 +10413,7 @@
         <v>0.56128071000000546</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -9037,7 +10424,7 @@
         <v>0.46013984199998959</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -9048,7 +10435,7 @@
         <v>0.51358361600000535</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -9059,7 +10446,7 @@
         <v>0.52699399126667001</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -9069,7 +10456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -9101,7 +10488,7 @@
         <v>1.4959295009999991</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -9112,7 +10499,7 @@
         <v>1.440738340999999</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -9123,7 +10510,7 @@
         <v>1.5362675610000029</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -9134,7 +10521,7 @@
         <v>1.466193469000004</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -9145,7 +10532,7 @@
         <v>1.5629440630000031</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -9156,7 +10543,7 @@
         <v>1.3267765739999999</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -9167,7 +10554,7 @@
         <v>1.6708823529999961</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -9178,7 +10565,7 @@
         <v>1.4909814620000079</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -9189,7 +10576,7 @@
         <v>1.496999166000009</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -9200,7 +10587,7 @@
         <v>1.527710564999992</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -9211,7 +10598,7 @@
         <v>1.449428122</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -9222,7 +10609,7 @@
         <v>1.3877246779999981</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -9233,7 +10620,7 @@
         <v>1.538900186000006</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -9244,7 +10631,7 @@
         <v>1.49564693100001</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -9255,7 +10642,7 @@
         <v>1.423627879000009</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -9266,7 +10653,7 @@
         <v>1.4873833900666691</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -9276,7 +10663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -9310,7 +10697,7 @@
         <v>0.40131310499998563</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -9321,7 +10708,7 @@
         <v>0.42776861899997698</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -9332,7 +10719,7 @@
         <v>0.71328500900000336</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -9343,7 +10730,7 @@
         <v>0.48797293000001218</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -9354,7 +10741,7 @@
         <v>0.57768137799999408</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -9365,7 +10752,7 @@
         <v>0.45310539400000488</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -9376,7 +10763,7 @@
         <v>0.47424946999998951</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -9387,7 +10774,7 @@
         <v>0.48541471500001881</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -9398,7 +10785,7 @@
         <v>0.44428186499999361</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -9409,7 +10796,7 @@
         <v>0.47552953999999659</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -9420,7 +10807,7 @@
         <v>0.49032522900000691</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -9431,7 +10818,7 @@
         <v>0.42557604699999269</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -9442,7 +10829,7 @@
         <v>0.61192603699998926</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -9453,7 +10840,7 @@
         <v>0.48210308599999507</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -9464,7 +10851,7 @@
         <v>0.46977997300001562</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -9475,7 +10862,7 @@
         <v>0.49468749313333171</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -9485,7 +10872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -9517,7 +10904,7 @@
         <v>1.595527615000002</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -9528,7 +10915,7 @@
         <v>1.405619346999998</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -9539,7 +10926,7 @@
         <v>1.455411508000005</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -9550,7 +10937,7 @@
         <v>1.456367309999997</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -9561,7 +10948,7 @@
         <v>1.5594390270000029</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -9572,7 +10959,7 @@
         <v>1.5259609339999971</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -9583,7 +10970,7 @@
         <v>1.394874270000003</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -9594,7 +10981,7 @@
         <v>1.5339312979999991</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -9605,7 +10992,7 @@
         <v>1.490408301000002</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -9616,7 +11003,7 @@
         <v>1.534324523999999</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -9627,7 +11014,7 @@
         <v>1.3824520489999941</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -9638,7 +11025,7 @@
         <v>1.448098658999996</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -9649,7 +11036,7 @@
         <v>1.5101966129999771</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -9660,7 +11047,7 @@
         <v>1.549143306000019</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -9671,7 +11058,7 @@
         <v>1.4084177950000201</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -9682,7 +11069,7 @@
         <v>1.4833448370666671</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -9692,7 +11079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -9726,7 +11113,7 @@
         <v>0.46141221400000632</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -9737,7 +11124,7 @@
         <v>0.45435114500000401</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -9748,7 +11135,7 @@
         <v>0.38726185199999458</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -9759,7 +11146,7 @@
         <v>0.4979908910000006</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -9770,7 +11157,7 @@
         <v>0.49615465999997349</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -9781,7 +11168,7 @@
         <v>0.55180928900000481</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -9792,7 +11179,7 @@
         <v>0.50694303700001342</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -9803,7 +11190,7 @@
         <v>0.50487074200000848</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -9814,7 +11201,7 @@
         <v>0.49207967099999911</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -9825,7 +11212,7 @@
         <v>0.53298704299999144</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -9836,7 +11223,7 @@
         <v>0.47666848400001532</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -9847,7 +11234,7 @@
         <v>0.60676246100001663</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -9858,7 +11245,7 @@
         <v>0.60425267800002302</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -9869,7 +11256,7 @@
         <v>0.4833433830000331</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -9880,7 +11267,7 @@
         <v>0.59738244900000836</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -9891,7 +11278,7 @@
         <v>0.51028466660000615</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -9902,11 +11289,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9916,23 +11303,23 @@
     <col min="3" max="3" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>1513</v>
+        <v>1584</v>
       </c>
       <c r="B2" s="3">
-        <v>1.757274942999999</v>
+        <v>1.7536371850000021</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -9940,10 +11327,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>1578</v>
+        <v>1559</v>
       </c>
       <c r="B3" s="3">
-        <v>1.8132709989999971</v>
+        <v>1.771008109999997</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -9951,10 +11338,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>1651</v>
+        <v>1573</v>
       </c>
       <c r="B4" s="3">
-        <v>1.878032555999994</v>
+        <v>1.781883741000001</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -9962,10 +11349,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>1576</v>
+        <v>1534</v>
       </c>
       <c r="B5" s="3">
-        <v>1.8106155929999941</v>
+        <v>1.768051213000007</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -9973,10 +11360,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>1560</v>
+        <v>1445</v>
       </c>
       <c r="B6" s="3">
-        <v>1.777283659999995</v>
+        <v>1.643437543000005</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
@@ -9984,10 +11371,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>1689</v>
+        <v>1545</v>
       </c>
       <c r="B7" s="3">
-        <v>1.906774058999986</v>
+        <v>1.734610282999995</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
@@ -9995,10 +11382,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>1625</v>
+        <v>1571</v>
       </c>
       <c r="B8" s="3">
-        <v>1.833993682999989</v>
+        <v>1.7661110600000141</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -10009,7 +11396,7 @@
         <v>1483</v>
       </c>
       <c r="B9" s="3">
-        <v>1.723001317000012</v>
+        <v>1.6850836290000191</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -10017,10 +11404,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="B10" s="3">
-        <v>1.750576610000024</v>
+        <v>1.7502501769999981</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>15</v>
@@ -10028,10 +11415,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>1594</v>
+        <v>1521</v>
       </c>
       <c r="B11" s="3">
-        <v>1.809435590999982</v>
+        <v>1.7986943340000039</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>16</v>
@@ -10039,10 +11426,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>1642</v>
+        <v>1704</v>
       </c>
       <c r="B12" s="3">
-        <v>1.862809598000013</v>
+        <v>1.922940757000049</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>17</v>
@@ -10050,10 +11437,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>1664</v>
+        <v>1539</v>
       </c>
       <c r="B13" s="3">
-        <v>1.9000638599999891</v>
+        <v>1.74119089300001</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>18</v>
@@ -10061,10 +11448,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>1489</v>
+        <v>1431</v>
       </c>
       <c r="B14" s="3">
-        <v>1.704934037999976</v>
+        <v>1.6487098580000179</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
@@ -10072,10 +11459,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>1649</v>
+        <v>1609</v>
       </c>
       <c r="B15" s="3">
-        <v>1.8497644640000319</v>
+        <v>1.7869802900000309</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>20</v>
@@ -10083,10 +11470,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>1621</v>
+        <v>1578</v>
       </c>
       <c r="B16" s="3">
-        <v>1.847221960000013</v>
+        <v>1.8051466489999941</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>21</v>
@@ -10094,10 +11481,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>1589.9333333333329</v>
+        <v>1546.333333333333</v>
       </c>
       <c r="B17" s="3">
-        <v>1.815003528733333</v>
+        <v>1.757182381466676</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>22</v>
@@ -10111,7 +11498,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>624</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.064409282</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>579</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.71466285800000406</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>460</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.68047652899999633</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>574</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.75175604799999718</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>416</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.56108161000000223</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>514</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.70506056199999989</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>1560</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.698496309000006</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>394</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.54953210600000091</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>451</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.63837852100000703</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>399</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.59593347400000596</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>477</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.69122739300000546</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>429</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.60861743399999568</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>472</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.67081457500000852</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>512</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.71486075400000004</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>550</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.70781443000001332</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>560.73333333333335</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.75687479233333621</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10136,178 +11730,178 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>433</v>
+        <v>1513</v>
       </c>
       <c r="B2" s="3">
-        <v>0.65463560599999937</v>
+        <v>1.757274942999999</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>411</v>
+        <v>1578</v>
       </c>
       <c r="B3" s="3">
-        <v>0.63613340300000232</v>
+        <v>1.8132709989999971</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>433</v>
+        <v>1651</v>
       </c>
       <c r="B4" s="3">
-        <v>0.60934777199999957</v>
+        <v>1.878032555999994</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>417</v>
+        <v>1576</v>
       </c>
       <c r="B5" s="3">
-        <v>0.59435927499999508</v>
+        <v>1.8106155929999941</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>534</v>
+        <v>1560</v>
       </c>
       <c r="B6" s="3">
-        <v>0.74954094099999935</v>
+        <v>1.777283659999995</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>415</v>
+        <v>1689</v>
       </c>
       <c r="B7" s="3">
-        <v>0.6191450930000002</v>
+        <v>1.906774058999986</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>366</v>
+        <v>1625</v>
       </c>
       <c r="B8" s="3">
-        <v>0.58705602800000634</v>
+        <v>1.833993682999989</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>375</v>
+        <v>1483</v>
       </c>
       <c r="B9" s="3">
-        <v>0.54148305699999355</v>
+        <v>1.723001317000012</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>455</v>
+        <v>1515</v>
       </c>
       <c r="B10" s="3">
-        <v>0.63464260499999625</v>
+        <v>1.750576610000024</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>360</v>
+        <v>1594</v>
       </c>
       <c r="B11" s="3">
-        <v>0.48480478599999799</v>
+        <v>1.809435590999982</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>532</v>
+        <v>1642</v>
       </c>
       <c r="B12" s="3">
-        <v>0.7450675810000007</v>
+        <v>1.862809598000013</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>356</v>
+        <v>1664</v>
       </c>
       <c r="B13" s="3">
-        <v>0.51314119500000288</v>
+        <v>1.9000638599999891</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>348</v>
+        <v>1489</v>
       </c>
       <c r="B14" s="3">
-        <v>0.53768485400000543</v>
+        <v>1.704934037999976</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>348</v>
+        <v>1649</v>
       </c>
       <c r="B15" s="3">
-        <v>0.50575776200000178</v>
+        <v>1.8497644640000319</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>402</v>
+        <v>1621</v>
       </c>
       <c r="B16" s="3">
-        <v>0.60586261299999933</v>
+        <v>1.847221960000013</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>412.33333333333331</v>
+        <v>1589.9333333333329</v>
       </c>
       <c r="B17" s="3">
-        <v>0.60124417139999997</v>
+        <v>1.815003528733333</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -10317,7 +11911,216 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>433</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.65463560599999937</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>411</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.63613340300000232</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>433</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.60934777199999957</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>417</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.59435927499999508</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>534</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.74954094099999935</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>415</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.6191450930000002</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>366</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.58705602800000634</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>375</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.54148305699999355</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>455</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.63464260499999625</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>360</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.48480478599999799</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>532</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.7450675810000007</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>356</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.51314119500000288</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>348</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.53768485400000543</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>348</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.50575776200000178</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>402</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.60586261299999933</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>412.33333333333331</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.60124417139999997</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -10349,7 +12152,7 @@
         <v>1.750877144000015</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -10360,7 +12163,7 @@
         <v>1.644016549000014</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -10371,7 +12174,7 @@
         <v>1.743561387</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -10382,7 +12185,7 @@
         <v>1.798894473999979</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -10393,7 +12196,7 @@
         <v>1.7215477240000041</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -10404,7 +12207,7 @@
         <v>1.7766636700000049</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -10415,7 +12218,7 @@
         <v>1.714227797999996</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -10426,7 +12229,7 @@
         <v>1.7354335169999899</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -10437,7 +12240,7 @@
         <v>1.8120557150000141</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -10448,7 +12251,7 @@
         <v>1.709271725000008</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -10459,7 +12262,7 @@
         <v>1.7886522860000009</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -10470,7 +12273,7 @@
         <v>1.6684639860000059</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -10481,7 +12284,7 @@
         <v>1.6955896020000409</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -10492,7 +12295,7 @@
         <v>1.74044347499995</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -10503,7 +12306,7 @@
         <v>1.8476690709999839</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -10514,7 +12317,7 @@
         <v>1.743157874866667</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -10524,7 +12327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -10556,7 +12359,7 @@
         <v>0.50262124700000044</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -10567,7 +12370,7 @@
         <v>0.46328089399999678</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -10578,7 +12381,7 @@
         <v>0.4580297390000041</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -10589,7 +12392,7 @@
         <v>1.063414770000001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -10600,7 +12403,7 @@
         <v>0.53157540100000489</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -10611,7 +12414,7 @@
         <v>0.56727375299999494</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -10622,7 +12425,7 @@
         <v>0.80831909600000529</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -10633,7 +12436,7 @@
         <v>0.56441724299999407</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -10644,7 +12447,7 @@
         <v>0.54830711800001097</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -10655,7 +12458,7 @@
         <v>0.5345509039999996</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -10666,7 +12469,7 @@
         <v>0.67283887899999684</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -10677,7 +12480,7 @@
         <v>0.64244973400001015</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -10688,7 +12491,7 @@
         <v>0.63624951200000623</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -10699,7 +12502,7 @@
         <v>0.58082116500000325</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -10710,7 +12513,7 @@
         <v>0.6413207300000181</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -10721,7 +12524,7 @@
         <v>0.61436467900000313</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -10731,7 +12534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -10763,7 +12566,7 @@
         <v>0.99176083300000073</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -10774,7 +12577,7 @@
         <v>1.6692979100000009</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -10785,7 +12588,7 @@
         <v>1.5845847269999991</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -10796,7 +12599,7 @@
         <v>1.6962872110000049</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -10807,7 +12610,7 @@
         <v>1.6425607099999979</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -10818,7 +12621,7 @@
         <v>1.6834556900000019</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -10829,7 +12632,7 @@
         <v>1.636732545000001</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -10840,7 +12643,7 @@
         <v>1.6501792449999899</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -10851,7 +12654,7 @@
         <v>1.6734595100000009</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -10862,7 +12665,7 @@
         <v>1.7136879920000041</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -10873,7 +12676,7 @@
         <v>1.66147762899999</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -10884,7 +12687,7 @@
         <v>1.638890803999999</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -10895,7 +12698,7 @@
         <v>1.6773173700000259</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -10906,7 +12709,7 @@
         <v>1.693341856000018</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -10917,7 +12720,7 @@
         <v>1.6160573299999901</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -10928,7 +12731,7 @@
         <v>1.6152727574666681</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -10938,7 +12741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -10970,7 +12773,7 @@
         <v>0.70664229899998077</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -10981,7 +12784,7 @@
         <v>0.41212672700001463</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -10992,7 +12795,7 @@
         <v>0.49176516399998599</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -11003,7 +12806,7 @@
         <v>0.44081370399999292</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -11014,7 +12817,7 @@
         <v>0.88593045599998277</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -11025,7 +12828,7 @@
         <v>0.52073727800001279</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -11036,7 +12839,7 @@
         <v>0.57204475899999352</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -11047,7 +12850,7 @@
         <v>0.48000844199998483</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -11058,7 +12861,7 @@
         <v>0.48258526600000101</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -11069,7 +12872,7 @@
         <v>0.56567326100000059</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -11080,7 +12883,7 @@
         <v>0.53221880500001362</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -11091,7 +12894,7 @@
         <v>0.59323251600000049</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -11102,7 +12905,7 @@
         <v>0.476208956999983</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -11113,7 +12916,7 @@
         <v>0.44816827100004281</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -11124,7 +12927,7 @@
         <v>0.54415353699999969</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -11133,420 +12936,6 @@
       </c>
       <c r="B17" s="3">
         <v>0.54348729613333258</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>652</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.84419417499998417</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>1234</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1.418631011000002</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>1276</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1.4428048569999989</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>1353</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.5016516510000031</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>1308</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1.488882031999992</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>1358</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1.5141852030000109</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>1344</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1.515805901999983</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>1202</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1.35302654900002</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1272</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1.4449971150000069</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>1328</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1.4871853180000021</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>1347</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1.543454643999979</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>1274</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.459503860000041</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>1369</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.552538640000023</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>1227</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1.398926355999947</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>1365</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1.523123262000013</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>1260.5999999999999</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1.432594038333334</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>436</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.6654576910000003</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>328</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.50925286500000055</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>335</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.50266903699999688</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>417</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.6524548949999982</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>352</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.56705853599999756</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>440</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.68135740999999683</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>423</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.61817485499999236</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>351</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.57911097999999583</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>449</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.63005794800000103</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>446</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.69988462999999967</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>452</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.65847550400000898</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>398</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.61055792400000541</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>320</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.48503700199999861</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>359</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.60023491000001172</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>316</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.5287374939999836</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>388.13333333333333</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.59923477873333253</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>134</v>
